--- a/biology/Médecine/Maladie_en_rapport_avec_la_mutation_du_gène_PLP1/Maladie_en_rapport_avec_la_mutation_du_gène_PLP1.xlsx
+++ b/biology/Médecine/Maladie_en_rapport_avec_la_mutation_du_gène_PLP1/Maladie_en_rapport_avec_la_mutation_du_gène_PLP1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maladie_en_rapport_avec_la_mutation_du_g%C3%A8ne_PLP1</t>
+          <t>Maladie_en_rapport_avec_la_mutation_du_gène_PLP1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les maladies en rapport avec la mutation du gène PLP1 sont des troubles de la formation de la myéline dont l'expression phénotypique vont de la maladie de Pelizaeus-Merzbacher à la paraplégie spastique familiale liée à l'X.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maladie_en_rapport_avec_la_mutation_du_g%C3%A8ne_PLP1</t>
+          <t>Maladie_en_rapport_avec_la_mutation_du_gène_PLP1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Maladie de Pelizaeus-Merzbacher</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Décrite pour la première fois en 1885[1],[2], la maladie de Pelizaeus-Merzbacher débute typiquement dans l'enfance par une hypotonie, un nystagmus et des troubles intellectuels. La maladie évolue vers une quadriplégie spastique et une ataxie. L'espérance de vie est raccourcie. il existe plusieurs formes de cette maladie :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrite pour la première fois en 1885 la maladie de Pelizaeus-Merzbacher débute typiquement dans l'enfance par une hypotonie, un nystagmus et des troubles intellectuels. La maladie évolue vers une quadriplégie spastique et une ataxie. L'espérance de vie est raccourcie. il existe plusieurs formes de cette maladie :
 Forme néonatale de la maladie de Pelizaeus-Merzbacher
 Le nouveau-né présente une hypotonie sévère avec nystagmus. Des convulsions, des mouvements anormaux des membres, des troubles de la déglutition font partie du tableau clinique. L'enfant ne marchera pas et l'acquisition de la parole est rare bien qu'une communication non verbale devienne possible. Le décès survient entre quelques années et 30 ans.
 Forme classique de la maladie de Pelizaeus-Merzbacher
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maladie_en_rapport_avec_la_mutation_du_g%C3%A8ne_PLP1</t>
+          <t>Maladie_en_rapport_avec_la_mutation_du_gène_PLP1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Paraplégie spastique familiale liée à l'X</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La paraplégie spastique familiale liée à l'X est une paraplégie spastique parfois sans signe d'atteinte du système nerveux central. L'espérance de vie n'est pas raccourcie. La variabilité des manifestations se rencontrent dans la même famille.
 Les femmes porteuses peuvent manifester des signes légers à moyen de la maladie.
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maladie_en_rapport_avec_la_mutation_du_g%C3%A8ne_PLP1</t>
+          <t>Maladie_en_rapport_avec_la_mutation_du_gène_PLP1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,9 +601,11 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(en) James Y Garbern, Karen Krajewski, Grace Hobson PLP1-Related Disorders In: GeneReviews at GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1997-2005. [1].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) James Y Garbern, Karen Krajewski, Grace Hobson PLP1-Related Disorders In: GeneReviews at GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1997-2005. .</t>
         </is>
       </c>
     </row>
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Maladie_en_rapport_avec_la_mutation_du_g%C3%A8ne_PLP1</t>
+          <t>Maladie_en_rapport_avec_la_mutation_du_gène_PLP1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,7 +633,9 @@
           <t>Associations de malades</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">ELA, Association Européenne contre les Leucodystrophies http://www.ela-asso.com
 </t>
